--- a/output.xlsx
+++ b/output.xlsx
@@ -89,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,11 +125,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -204,6 +218,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -515,22 +530,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
     <col hidden="1" width="13" customWidth="1" min="106" max="106"/>
-    <col width="20" customWidth="1" min="107" max="107"/>
-    <col width="20" customWidth="1" min="108" max="108"/>
-    <col width="20" customWidth="1" min="109" max="109"/>
-    <col width="20" customWidth="1" min="110" max="110"/>
-    <col width="20" customWidth="1" min="111" max="111"/>
-    <col width="20" customWidth="1" min="112" max="112"/>
-    <col width="20" customWidth="1" min="113" max="113"/>
-    <col width="20" customWidth="1" min="114" max="114"/>
+    <col width="16" customWidth="1" min="107" max="107"/>
+    <col width="16" customWidth="1" min="108" max="108"/>
+    <col width="16" customWidth="1" min="109" max="109"/>
+    <col width="16" customWidth="1" min="110" max="110"/>
+    <col width="16" customWidth="1" min="111" max="111"/>
+    <col width="16" customWidth="1" min="112" max="112"/>
+    <col width="16" customWidth="1" min="113" max="113"/>
+    <col width="16" customWidth="1" min="114" max="114"/>
     <col hidden="1" width="13" customWidth="1" min="115" max="115"/>
-    <col width="20" customWidth="1" min="116" max="116"/>
-    <col width="20" customWidth="1" min="117" max="117"/>
-    <col width="20" customWidth="1" min="118" max="118"/>
-    <col width="20" customWidth="1" min="119" max="119"/>
-    <col width="20" customWidth="1" min="120" max="120"/>
-    <col width="20" customWidth="1" min="121" max="121"/>
-    <col width="20" customWidth="1" min="122" max="122"/>
+    <col width="16" customWidth="1" min="116" max="116"/>
+    <col width="16" customWidth="1" min="117" max="117"/>
+    <col width="16" customWidth="1" min="118" max="118"/>
+    <col width="16" customWidth="1" min="119" max="119"/>
+    <col width="16" customWidth="1" min="120" max="120"/>
+    <col width="16" customWidth="1" min="121" max="121"/>
+    <col width="16" customWidth="1" min="122" max="122"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -1060,78 +1075,78 @@
         </is>
       </c>
       <c r="DB1" s="25" t="n"/>
-      <c r="DC1" s="25" t="inlineStr">
+      <c r="DC1" s="26" t="inlineStr">
         <is>
           <t>MDT RSRP</t>
         </is>
       </c>
-      <c r="DD1" s="25" t="inlineStr">
+      <c r="DD1" s="26" t="inlineStr">
         <is>
           <t>site1昨日最差PRB</t>
         </is>
       </c>
-      <c r="DE1" s="25" t="inlineStr">
+      <c r="DE1" s="26" t="inlineStr">
         <is>
           <t>site2昨日最差PRB</t>
         </is>
       </c>
-      <c r="DF1" s="25" t="inlineStr">
+      <c r="DF1" s="26" t="inlineStr">
         <is>
           <t>site3昨日最差PRB</t>
         </is>
       </c>
-      <c r="DG1" s="25" t="inlineStr">
+      <c r="DG1" s="26" t="inlineStr">
         <is>
           <t>昨日最差PRB</t>
         </is>
       </c>
-      <c r="DH1" s="25" t="inlineStr">
+      <c r="DH1" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">昨日最差PRB的SiteID	</t>
         </is>
       </c>
-      <c r="DI1" s="25" t="inlineStr">
+      <c r="DI1" s="26" t="inlineStr">
         <is>
           <t>Weekday</t>
         </is>
       </c>
-      <c r="DJ1" s="25" t="inlineStr">
+      <c r="DJ1" s="26" t="inlineStr">
         <is>
           <t>RSRP(MDT)</t>
         </is>
       </c>
       <c r="DK1" s="25" t="n"/>
-      <c r="DL1" s="25" t="inlineStr">
+      <c r="DL1" s="26" t="inlineStr">
         <is>
           <t>5G True User</t>
         </is>
       </c>
-      <c r="DM1" s="25" t="inlineStr">
+      <c r="DM1" s="26" t="inlineStr">
         <is>
           <t>Site1~3 近3小時干擾&gt;-105的筆數</t>
         </is>
       </c>
-      <c r="DN1" s="25" t="inlineStr">
+      <c r="DN1" s="26" t="inlineStr">
         <is>
           <t>昨日最差PRB(4)</t>
         </is>
       </c>
-      <c r="DO1" s="25" t="inlineStr">
+      <c r="DO1" s="26" t="inlineStr">
         <is>
           <t>RSRP(4)</t>
         </is>
       </c>
-      <c r="DP1" s="25" t="inlineStr">
+      <c r="DP1" s="26" t="inlineStr">
         <is>
           <t>新客訴原因4</t>
         </is>
       </c>
-      <c r="DQ1" s="25" t="inlineStr">
+      <c r="DQ1" s="26" t="inlineStr">
         <is>
           <t>RuleBase</t>
         </is>
       </c>
-      <c r="DR1" s="25" t="inlineStr">
+      <c r="DR1" s="26" t="inlineStr">
         <is>
           <t>OM回覆客訴原因</t>
         </is>
@@ -1143,10 +1158,10 @@
           <t>2022-11-30-0884</t>
         </is>
       </c>
-      <c r="B2" s="26" t="n">
+      <c r="B2" s="27" t="n">
         <v>59963955</v>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="28" t="n">
         <v>44895.94771990741</v>
       </c>
       <c r="D2" s="6" t="inlineStr">
@@ -1501,7 +1516,7 @@
         <f>IF(CP2&lt;-10,CP2,IF(ISERROR(AVERAGE(CN2:CR2)),"",AVERAGE(CN2:CR2)))</f>
         <v/>
       </c>
-      <c r="DD2" s="28">
+      <c r="DD2" s="29">
         <f>IF(AC2&lt;&gt;"",AC2/100,"")</f>
         <v/>
       </c>
@@ -1564,10 +1579,10 @@
           <t>2022-11-30-0885</t>
         </is>
       </c>
-      <c r="B3" s="29" t="n">
+      <c r="B3" s="30" t="n">
         <v>62127689</v>
       </c>
-      <c r="C3" s="30" t="n">
+      <c r="C3" s="31" t="n">
         <v>44895.94789351852</v>
       </c>
       <c r="D3" s="15" t="inlineStr">
@@ -1912,7 +1927,7 @@
         <f>IF(CP3&lt;-10,CP3,IF(ISERROR(AVERAGE(CN3:CR3)),"",AVERAGE(CN3:CR3)))</f>
         <v/>
       </c>
-      <c r="DD3" s="28">
+      <c r="DD3" s="29">
         <f>IF(AC3&lt;&gt;"",AC3/100,"")</f>
         <v/>
       </c>
@@ -1975,10 +1990,10 @@
           <t>2022-11-30-0886</t>
         </is>
       </c>
-      <c r="B4" s="26" t="n">
+      <c r="B4" s="27" t="n">
         <v>64358279</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="28" t="n">
         <v>44895.94847222222</v>
       </c>
       <c r="D4" s="6" t="inlineStr">
@@ -2299,7 +2314,7 @@
         <f>IF(CP4&lt;-10,CP4,IF(ISERROR(AVERAGE(CN4:CR4)),"",AVERAGE(CN4:CR4)))</f>
         <v/>
       </c>
-      <c r="DD4" s="28">
+      <c r="DD4" s="29">
         <f>IF(AC4&lt;&gt;"",AC4/100,"")</f>
         <v/>
       </c>
@@ -2362,10 +2377,10 @@
           <t>2022-11-30-0887</t>
         </is>
       </c>
-      <c r="B5" s="29" t="n">
+      <c r="B5" s="30" t="n">
         <v>65719531</v>
       </c>
-      <c r="C5" s="30" t="n">
+      <c r="C5" s="31" t="n">
         <v>44895.94994212963</v>
       </c>
       <c r="D5" s="15" t="inlineStr">
@@ -2724,7 +2739,7 @@
         <f>IF(CP5&lt;-10,CP5,IF(ISERROR(AVERAGE(CN5:CR5)),"",AVERAGE(CN5:CR5)))</f>
         <v/>
       </c>
-      <c r="DD5" s="28">
+      <c r="DD5" s="29">
         <f>IF(AC5&lt;&gt;"",AC5/100,"")</f>
         <v/>
       </c>
@@ -2787,10 +2802,10 @@
           <t>2022-11-30-0888</t>
         </is>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="27" t="n">
         <v>14223711</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="28" t="n">
         <v>44895.95390046296</v>
       </c>
       <c r="D6" s="6" t="inlineStr">
@@ -3111,7 +3126,7 @@
         <f>IF(CP6&lt;-10,CP6,IF(ISERROR(AVERAGE(CN6:CR6)),"",AVERAGE(CN6:CR6)))</f>
         <v/>
       </c>
-      <c r="DD6" s="28">
+      <c r="DD6" s="29">
         <f>IF(AC6&lt;&gt;"",AC6/100,"")</f>
         <v/>
       </c>
@@ -3174,10 +3189,10 @@
           <t>2022-11-30-0889</t>
         </is>
       </c>
-      <c r="B7" s="29" t="n">
+      <c r="B7" s="30" t="n">
         <v>62488345</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="31" t="n">
         <v>44895.95777777778</v>
       </c>
       <c r="D7" s="15" t="inlineStr">
@@ -3536,7 +3551,7 @@
         <f>IF(CP7&lt;-10,CP7,IF(ISERROR(AVERAGE(CN7:CR7)),"",AVERAGE(CN7:CR7)))</f>
         <v/>
       </c>
-      <c r="DD7" s="28">
+      <c r="DD7" s="29">
         <f>IF(AC7&lt;&gt;"",AC7/100,"")</f>
         <v/>
       </c>
@@ -3599,10 +3614,10 @@
           <t>2022-11-30-0890</t>
         </is>
       </c>
-      <c r="B8" s="26" t="n">
+      <c r="B8" s="27" t="n">
         <v>57489510</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="28" t="n">
         <v>44895.95837962963</v>
       </c>
       <c r="D8" s="6" t="inlineStr">
@@ -3919,7 +3934,7 @@
         <f>IF(CP8&lt;-10,CP8,IF(ISERROR(AVERAGE(CN8:CR8)),"",AVERAGE(CN8:CR8)))</f>
         <v/>
       </c>
-      <c r="DD8" s="28">
+      <c r="DD8" s="29">
         <f>IF(AC8&lt;&gt;"",AC8/100,"")</f>
         <v/>
       </c>
@@ -3982,10 +3997,10 @@
           <t>2022-11-30-0891</t>
         </is>
       </c>
-      <c r="B9" s="29" t="n">
+      <c r="B9" s="30" t="n">
         <v>61464174</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="31" t="n">
         <v>44895.95918981481</v>
       </c>
       <c r="D9" s="15" t="inlineStr">
@@ -4340,7 +4355,7 @@
         <f>IF(CP9&lt;-10,CP9,IF(ISERROR(AVERAGE(CN9:CR9)),"",AVERAGE(CN9:CR9)))</f>
         <v/>
       </c>
-      <c r="DD9" s="28">
+      <c r="DD9" s="29">
         <f>IF(AC9&lt;&gt;"",AC9/100,"")</f>
         <v/>
       </c>
@@ -4403,10 +4418,10 @@
           <t>2022-11-30-0892</t>
         </is>
       </c>
-      <c r="B10" s="26" t="n">
+      <c r="B10" s="27" t="n">
         <v>12016033</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="28" t="n">
         <v>44895.96944444445</v>
       </c>
       <c r="D10" s="6" t="inlineStr">
@@ -4727,7 +4742,7 @@
         <f>IF(CP10&lt;-10,CP10,IF(ISERROR(AVERAGE(CN10:CR10)),"",AVERAGE(CN10:CR10)))</f>
         <v/>
       </c>
-      <c r="DD10" s="28">
+      <c r="DD10" s="29">
         <f>IF(AC10&lt;&gt;"",AC10/100,"")</f>
         <v/>
       </c>
@@ -4790,10 +4805,10 @@
           <t>2022-11-30-0893</t>
         </is>
       </c>
-      <c r="B11" s="29" t="n">
+      <c r="B11" s="30" t="n">
         <v>52426646</v>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="31" t="n">
         <v>44895.97266203703</v>
       </c>
       <c r="D11" s="15" t="inlineStr">
@@ -5148,7 +5163,7 @@
         <f>IF(CP11&lt;-10,CP11,IF(ISERROR(AVERAGE(CN11:CR11)),"",AVERAGE(CN11:CR11)))</f>
         <v/>
       </c>
-      <c r="DD11" s="28">
+      <c r="DD11" s="29">
         <f>IF(AC11&lt;&gt;"",AC11/100,"")</f>
         <v/>
       </c>
@@ -5211,10 +5226,10 @@
           <t>2022-11-30-0894</t>
         </is>
       </c>
-      <c r="B12" s="26" t="n">
+      <c r="B12" s="27" t="n">
         <v>15240343</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="28" t="n">
         <v>44895.97481481481</v>
       </c>
       <c r="D12" s="6" t="inlineStr">
@@ -5573,7 +5588,7 @@
         <f>IF(CP12&lt;-10,CP12,IF(ISERROR(AVERAGE(CN12:CR12)),"",AVERAGE(CN12:CR12)))</f>
         <v/>
       </c>
-      <c r="DD12" s="28">
+      <c r="DD12" s="29">
         <f>IF(AC12&lt;&gt;"",AC12/100,"")</f>
         <v/>
       </c>
@@ -5636,10 +5651,10 @@
           <t>2022-11-30-0895</t>
         </is>
       </c>
-      <c r="B13" s="29" t="n">
+      <c r="B13" s="30" t="n">
         <v>17721780</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="31" t="n">
         <v>44895.97855324074</v>
       </c>
       <c r="D13" s="15" t="inlineStr">
@@ -5896,7 +5911,7 @@
         <f>IF(CP13&lt;-10,CP13,IF(ISERROR(AVERAGE(CN13:CR13)),"",AVERAGE(CN13:CR13)))</f>
         <v/>
       </c>
-      <c r="DD13" s="28">
+      <c r="DD13" s="29">
         <f>IF(AC13&lt;&gt;"",AC13/100,"")</f>
         <v/>
       </c>
@@ -5959,10 +5974,10 @@
           <t>2022-11-30-0896</t>
         </is>
       </c>
-      <c r="B14" s="26" t="n">
+      <c r="B14" s="27" t="n">
         <v>65525075</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="28" t="n">
         <v>44895.99927083333</v>
       </c>
       <c r="D14" s="6" t="inlineStr">
@@ -6283,7 +6298,7 @@
         <f>IF(CP14&lt;-10,CP14,IF(ISERROR(AVERAGE(CN14:CR14)),"",AVERAGE(CN14:CR14)))</f>
         <v/>
       </c>
-      <c r="DD14" s="28">
+      <c r="DD14" s="29">
         <f>IF(AC14&lt;&gt;"",AC14/100,"")</f>
         <v/>
       </c>
@@ -6346,10 +6361,10 @@
           <t>2022-11-30-0897</t>
         </is>
       </c>
-      <c r="B15" s="29" t="n">
+      <c r="B15" s="30" t="n">
         <v>63169231</v>
       </c>
-      <c r="C15" s="30" t="n">
+      <c r="C15" s="31" t="n">
         <v>44895.99983796296</v>
       </c>
       <c r="D15" s="15" t="inlineStr">
@@ -6708,7 +6723,7 @@
         <f>IF(CP15&lt;-10,CP15,IF(ISERROR(AVERAGE(CN15:CR15)),"",AVERAGE(CN15:CR15)))</f>
         <v/>
       </c>
-      <c r="DD15" s="28">
+      <c r="DD15" s="29">
         <f>IF(AC15&lt;&gt;"",AC15/100,"")</f>
         <v/>
       </c>
